--- a/Common/Excel/Templates/template_账单模板.xlsx
+++ b/Common/Excel/Templates/template_账单模板.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>团号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -318,6 +318,77 @@
       <t>维码：</t>
     </r>
     <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>请确认好请求书内容之后在以下签名栏上签名回信。
+谢谢您的合作。
+签名:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 日期:2018年 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -327,7 +398,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,6 +593,21 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -550,7 +636,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -608,6 +694,123 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -618,7 +821,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -703,12 +906,33 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -730,29 +954,59 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -770,251 +1024,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>998297</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 1"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4086225" y="4219575"/>
-          <a:ext cx="3627197" cy="1247774"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="SimHei"/>
-              <a:ea typeface="SimHei"/>
-            </a:rPr>
-            <a:t>请确认好请求书内容之后在以下签名栏上签名回信。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="SimHei"/>
-              <a:ea typeface="SimHei"/>
-            </a:rPr>
-            <a:t>谢谢您的合作。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="SimHei"/>
-            <a:ea typeface="SimHei"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0" u="sng" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="SimHei"/>
-              <a:ea typeface="SimHei"/>
-            </a:rPr>
-            <a:t>签名</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" u="sng" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="SimHei"/>
-              <a:ea typeface="SimHei"/>
-            </a:rPr>
-            <a:t>:         </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="SimHei"/>
-              <a:ea typeface="SimHei"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="SimHei"/>
-              <a:ea typeface="SimHei"/>
-            </a:rPr>
-            <a:t>日期</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="SimHei"/>
-              <a:ea typeface="SimHei"/>
-            </a:rPr>
-            <a:t>:2018</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="SimHei"/>
-              <a:ea typeface="SimHei"/>
-            </a:rPr>
-            <a:t>年</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0" u="sng" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="SimHei"/>
-              <a:ea typeface="SimHei"/>
-            </a:rPr>
-            <a:t>    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="SimHei"/>
-              <a:ea typeface="SimHei"/>
-            </a:rPr>
-            <a:t>月</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0" u="sng" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="SimHei"/>
-              <a:ea typeface="SimHei"/>
-            </a:rPr>
-            <a:t>    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="SimHei"/>
-              <a:ea typeface="SimHei"/>
-            </a:rPr>
-            <a:t>日</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 646"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2514600" y="4476750"/>
-          <a:ext cx="1009650" cy="1123950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1306,8 +1315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1321,16 +1330,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:14" ht="14.25">
       <c r="A2" s="12"/>
@@ -1344,32 +1353,32 @@
       <c r="G2" s="14"/>
       <c r="H2" s="15">
         <f ca="1">TODAY()</f>
-        <v>43255</v>
+        <v>43256</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" thickBot="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="9"/>
@@ -1379,11 +1388,11 @@
       <c r="A5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
@@ -1435,10 +1444,10 @@
       <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" ht="15" thickBot="1">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="44"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="21"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
@@ -1520,81 +1529,81 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="14.25">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
     </row>
     <row r="16" spans="1:14" ht="14.25">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="33" t="s">
+      <c r="B17" s="39"/>
+      <c r="C17" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="35" t="s">
+      <c r="B18" s="39"/>
+      <c r="C18" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
       <c r="H18" s="25"/>
     </row>
     <row r="19" spans="1:8" ht="14.25">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="33" t="s">
+      <c r="B19" s="39"/>
+      <c r="C19" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
       <c r="H19" s="27"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28">
+      <c r="B20" s="36"/>
+      <c r="C20" s="36">
         <v>18030843363</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
@@ -1610,10 +1619,10 @@
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="28"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
@@ -1622,87 +1631,85 @@
       <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="46"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="49"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="49"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
+      <c r="A26" s="60"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="49"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
+      <c r="A27" s="60"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="49"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
+      <c r="A28" s="60"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="49"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A8:B8"/>
+  <mergeCells count="19">
+    <mergeCell ref="D23:H29"/>
+    <mergeCell ref="B23:C29"/>
+    <mergeCell ref="A23:A29"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:C29"/>
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:E17"/>
@@ -1710,6 +1717,12 @@
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1717,7 +1730,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
-  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Common/Excel/Templates/template_账单模板.xlsx
+++ b/Common/Excel/Templates/template_账单模板.xlsx
@@ -906,6 +906,84 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -929,84 +1007,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1315,8 +1315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1330,16 +1330,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
     </row>
     <row r="2" spans="1:14" ht="14.25">
       <c r="A2" s="12"/>
@@ -1357,28 +1357,28 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" thickBot="1">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="9"/>
@@ -1388,11 +1388,11 @@
       <c r="A5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
@@ -1444,10 +1444,10 @@
       <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" ht="15" thickBot="1">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="35"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="21"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
@@ -1529,81 +1529,81 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="14.25">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
     </row>
     <row r="16" spans="1:14" ht="14.25">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="40" t="s">
+      <c r="B17" s="49"/>
+      <c r="C17" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="42" t="s">
+      <c r="B18" s="49"/>
+      <c r="C18" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
       <c r="H18" s="25"/>
     </row>
     <row r="19" spans="1:8" ht="14.25">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="40" t="s">
+      <c r="B19" s="49"/>
+      <c r="C19" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
       <c r="H19" s="27"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36">
+      <c r="B20" s="46"/>
+      <c r="C20" s="46">
         <v>18030843363</v>
       </c>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
@@ -1619,10 +1619,10 @@
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="36"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
@@ -1631,90 +1631,79 @@
       <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="59"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="44" t="s">
+      <c r="A23" s="43"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="46"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="60"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="49"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="33"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="60"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="49"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="33"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="60"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="49"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="33"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="60"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="49"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="33"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="60"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="49"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="33"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="61"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="52"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D23:H29"/>
-    <mergeCell ref="B23:C29"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:E18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="A15:H15"/>
@@ -1723,6 +1712,17 @@
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="D23:H29"/>
+    <mergeCell ref="B23:C29"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="A22:B22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/Common/Excel/Templates/template_账单模板.xlsx
+++ b/Common/Excel/Templates/template_账单模板.xlsx
@@ -12,24 +12,20 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$11:$H$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$11:$H$123</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>团号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>人数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发票费用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -821,7 +817,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -843,9 +839,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -964,49 +957,49 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1313,10 +1306,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:C29"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1330,152 +1323,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+    </row>
+    <row r="2" spans="1:14" ht="14.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14">
+        <f ca="1">TODAY()</f>
+        <v>43276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" thickBot="1">
+      <c r="A3" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-    </row>
-    <row r="2" spans="1:14" ht="14.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14" t="s">
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" thickBot="1">
+      <c r="A4" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" thickBot="1">
+      <c r="A5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" ht="15" thickBot="1">
+      <c r="A6" s="12"/>
+      <c r="B6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15">
-        <f ca="1">TODAY()</f>
-        <v>43256</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15" thickBot="1">
-      <c r="A3" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-    </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1">
-      <c r="A4" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-    </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1">
-      <c r="A5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="5"/>
-    </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="18" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" ht="15" thickBot="1">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13" t="s">
+      <c r="G7" s="12"/>
+      <c r="H7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="20" t="s">
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" ht="15" thickBot="1">
+      <c r="A8" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="5"/>
-    </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1">
-      <c r="A8" s="60" t="s">
+      <c r="B8" s="56"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="13" t="s">
+      <c r="G8" s="12"/>
+      <c r="H8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
       <c r="N8" s="5"/>
     </row>
     <row r="9" spans="1:14" ht="14.25" thickBot="1">
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
       <c r="N9" s="5"/>
     </row>
     <row r="10" spans="1:14" ht="14.25" thickBot="1">
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="10"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="9"/>
       <c r="N10" s="6"/>
     </row>
     <row r="11" spans="1:14">
@@ -1486,243 +1479,228 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3">
-        <v>12.5</v>
-      </c>
-      <c r="F12" s="7">
-        <f>E12*B12</f>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="11">
-        <f>SUM(F12:F12)</f>
-        <v>12.5</v>
-      </c>
+      <c r="F12" s="10" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="14.25">
+      <c r="A14" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
     </row>
     <row r="15" spans="1:14" ht="14.25">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-    </row>
-    <row r="16" spans="1:14" ht="14.25">
-      <c r="A16" s="47" t="s">
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="58" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
+      <c r="C16" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="50" t="s">
+      <c r="A17" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="52" t="s">
+      <c r="H17" s="24"/>
+    </row>
+    <row r="18" spans="1:8" ht="14.25">
+      <c r="A18" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="25"/>
-    </row>
-    <row r="19" spans="1:8" ht="14.25">
-      <c r="A19" s="53" t="s">
+      <c r="B18" s="47"/>
+      <c r="C18" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="50" t="s">
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="26"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="27"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45">
+        <v>18030843363</v>
+      </c>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46">
-        <v>18030843363</v>
-      </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="42"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="29"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="43"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="30"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="32"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="44"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="33"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="32"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="44"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="33"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="32"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="44"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="33"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="32"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="44"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="33"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="32"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="44"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="33"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="45"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="36"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="A14:H14"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:E16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="D23:H29"/>
-    <mergeCell ref="B23:C29"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:H28"/>
+    <mergeCell ref="B22:C28"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
